--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 2 Julien LAY.xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 2 Julien LAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F05AF8-5DBA-4091-AEF8-1A95010C1007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB3D547-0BAB-47E9-B440-6815A5BEF7A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Missions</t>
   </si>
@@ -304,6 +304,54 @@
   </si>
   <si>
     <t>Monsieur SEGATO m'a fait venir au magasin mais m'a fait repartir au dernier moment car il m'a dit qu'il était chez le docteur et qu'il ne vallait mieux pas qu'il revienne travailler aujourd'hui.</t>
+  </si>
+  <si>
+    <t>Questionnement sur le réseau de l'entreprise</t>
+  </si>
+  <si>
+    <t>Questionner un employé de l'entreprise sur le réseau matériel présent dans l'entreprise</t>
+  </si>
+  <si>
+    <t>Tout le matériel réseau de l'entreprise : 2 NAS, 2 Switch, Une Freebox</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Savoir poser des questions et se référer au cours de réseau de l'IUT</t>
+  </si>
+  <si>
+    <t>Oberserver, questionner, faire des corrélations avec mes connaissances</t>
+  </si>
+  <si>
+    <t>Maintenances de PC</t>
+  </si>
+  <si>
+    <t>Atelier de l'entreprise avec le matériel informatique nécessaire</t>
+  </si>
+  <si>
+    <t>Commencer à savoir faire des manipulations simples que l'on m'a montré</t>
+  </si>
+  <si>
+    <t>Oberserver, questionner, faire des corrélations avec mes connaissances du stage</t>
+  </si>
+  <si>
+    <t>Gérer la clientèle</t>
+  </si>
+  <si>
+    <t>Gérer les demandes de la clientèle ainsi que certaines factures et devis</t>
+  </si>
+  <si>
+    <t>Poste informatique de l'accueil, imprimante</t>
+  </si>
+  <si>
+    <t>Savoir communiquer avec le client et être autonome (ou poser des questions à M. SEGATO)</t>
+  </si>
+  <si>
+    <t>2 ou 3</t>
+  </si>
+  <si>
+    <t>Rajouter Windows 10, Office, ninite,com, etc. sur un ordi testé (ne fonctionnait plus avant)</t>
   </si>
 </sst>
 </file>
@@ -738,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -832,6 +880,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,7 +1359,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J14"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,91 +1375,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="64"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="60" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="65"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="51" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="58" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1416,17 +1467,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1436,8 +1487,8 @@
         <v>29</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1446,16 +1497,16 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1476,14 +1527,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
@@ -1504,16 +1555,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
@@ -1534,14 +1585,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="7" t="s">
         <v>51</v>
       </c>
@@ -1577,31 +1628,31 @@
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
@@ -1616,44 +1667,92 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
@@ -1672,8 +1771,8 @@
         <v>32</v>
       </c>
       <c r="B20" s="28"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -1686,8 +1785,8 @@
         <v>33</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -1708,12 +1807,12 @@
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="36"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="8"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1722,10 +1821,10 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1738,8 +1837,8 @@
         <v>21</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="8"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1748,82 +1847,82 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 2 Julien LAY.xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 2 Julien LAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB3D547-0BAB-47E9-B440-6815A5BEF7A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6249C5-D3F3-4FBD-A154-788F4A16BF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'carnet de bord'!$A$1:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'carnet de bord'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Missions</t>
   </si>
@@ -352,6 +352,48 @@
   </si>
   <si>
     <t>Rajouter Windows 10, Office, ninite,com, etc. sur un ordi testé (ne fonctionnait plus avant)</t>
+  </si>
+  <si>
+    <t>Réaliser une "fausse manipulation " de PC fixe</t>
+  </si>
+  <si>
+    <t>Me faire chercher une pièce dans le PC et me demander de faire des choses avec alors qu'ell n'y était pas (SSD)</t>
+  </si>
+  <si>
+    <t>Savoir faire des manipulations simples que l'on m'a montré</t>
+  </si>
+  <si>
+    <t>Chercher des renseignements sur le réseau matériel de l'entreprise</t>
+  </si>
+  <si>
+    <t>J'ai cherché sur Internet le fonctionnement du NAS pour mieux comprendre l'infrastructure du réseau de l'entreprise</t>
+  </si>
+  <si>
+    <t>Maitriser des connaissances et se renseigner sur divers sites internet</t>
+  </si>
+  <si>
+    <t>Tout le matériel réseau de l'entreprise : 2 NAS, 2 Switch, Une Freebox ainsi que les cours de réseaux de l'IUT et internet</t>
+  </si>
+  <si>
+    <t>Réutiliser les compétences de manipulation acquises lors du stage</t>
+  </si>
+  <si>
+    <t>Réutiliser les compétences de manipulation et de théorique acquises en cours à l'IUT</t>
+  </si>
+  <si>
+    <t>Jeudi, j'ai entendu monsieur SEGATO parler avec une infographiste qui lui proposait des offres pour la refonte de son site, de son affiche, etc. car il souhaite transformer l'entreprise en ARCADE FACTORY. J'ai aussi pris le courrier et jeter des déchets à la benne à ordures.</t>
+  </si>
+  <si>
+    <t>Démontage PC portable en autonomie + gérer la boutique seul (monsieur SEGATO en rdv)</t>
+  </si>
+  <si>
+    <t>Atelier de l'entreprise avec le matériel informatique nécessaire et téléphone pour répondre au clients</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Savoir gérer de la clientèle, savoir faire des montages seul sur des PC</t>
   </si>
 </sst>
 </file>
@@ -786,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -834,9 +876,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,9 +906,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -888,20 +924,125 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,107 +1054,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,10 +1405,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,91 +1424,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="61" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="63" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1467,17 +1516,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1487,8 +1536,8 @@
         <v>29</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1497,16 +1546,16 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1527,14 +1576,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
@@ -1555,16 +1604,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
@@ -1585,14 +1634,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="7" t="s">
         <v>51</v>
       </c>
@@ -1613,70 +1662,70 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="27"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
@@ -1687,7 +1736,7 @@
         <v>59</v>
       </c>
       <c r="H16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>60</v>
@@ -1697,14 +1746,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="8" t="s">
         <v>62</v>
       </c>
@@ -1714,10 +1763,10 @@
       <c r="G17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" s="33" t="s">
+      <c r="H17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="10">
@@ -1731,10 +1780,10 @@
       <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="8" t="s">
         <v>67</v>
       </c>
@@ -1747,7 +1796,7 @@
       <c r="H18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="31" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="16">
@@ -1755,76 +1804,126 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="B20" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="34">
+        <v>3</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="84" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="34">
+        <v>3</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="84" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="B22" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="85">
+        <v>3</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1832,13 +1931,11 @@
       <c r="I24" s="7"/>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>21</v>
-      </c>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="8"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1846,98 +1943,117 @@
       <c r="I25" s="7"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="82"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="42">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1953,20 +2069,18 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B13:J14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>

--- a/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 2 Julien LAY.xlsx
+++ b/S2/Stage 1ère année/Carnet de bord/Carnet de bord Stage semaine 2 Julien LAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\Stage 1ère année\Carnet de bord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6249C5-D3F3-4FBD-A154-788F4A16BF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DDB523-80FF-460B-A2E0-89809073CFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>Missions</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>1h</t>
-  </si>
-  <si>
-    <t>MARDI matin</t>
-  </si>
-  <si>
-    <t>MARDI après-midi</t>
   </si>
   <si>
     <t>MERCREDI matin</t>
@@ -394,6 +388,42 @@
   </si>
   <si>
     <t>Savoir gérer de la clientèle, savoir faire des montages seul sur des PC</t>
+  </si>
+  <si>
+    <t>MARDI</t>
+  </si>
+  <si>
+    <t>Réparer téléphone</t>
+  </si>
+  <si>
+    <t>Réparer Iphone 6S : enlever l'écran et faire des tests pour trouver le problème du client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutos YouTube + M, SEGATO </t>
+  </si>
+  <si>
+    <t>Savoir faire des manipulations simples grâce à des tutos</t>
+  </si>
+  <si>
+    <t>Récuperer du matériel d'un ordi laissé par un client</t>
+  </si>
+  <si>
+    <t>Récuperer du matériel d'un ordi laissé par un client pour avoir du stock de pièces si jamais il y avait nécessité pour une autre intervention</t>
+  </si>
+  <si>
+    <t>Vérification des demandes clients</t>
+  </si>
+  <si>
+    <t>Vérifier que toutes les demandes de la semaines aient bien été faites et que tout est en ordre pour la semaine prochaine</t>
+  </si>
+  <si>
+    <t>Magasin</t>
+  </si>
+  <si>
+    <t>Savoir gérer des stocks et des commandes</t>
+  </si>
+  <si>
+    <t>J'ai globalement passé une bonne semaine et je pense être un peu plus confiant sur l'expérience avec des clients en entreprise ainsi que sur le fait de réussir à demander des pièces sur un PC ou du matériel informatique (téléphone ou autre).</t>
   </si>
 </sst>
 </file>
@@ -845,9 +875,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -930,23 +957,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,95 +970,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1054,15 +992,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,8 +1437,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,91 +1454,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="71"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="72"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="61" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="61" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1516,544 +1546,589 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="59"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77"/>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="77"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="33">
+        <v>3</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="35" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="33">
+        <v>3</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="35" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="B22" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="36">
+        <v>3</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74"/>
+      <c r="B25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="B26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="15">
         <v>2</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="34">
-        <v>3</v>
-      </c>
-      <c r="I20" s="34" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J20" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="84" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="34">
-        <v>3</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="84" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="85">
-        <v>3</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="79"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="80"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82"/>
+      <c r="A30" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
+  <mergeCells count="44">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2069,18 +2144,21 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B13:J14"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
